--- a/medicine/Enfance/T.V._Tango/T.V._Tango.xlsx
+++ b/medicine/Enfance/T.V._Tango/T.V._Tango.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">T.V. Tango est un court métrage d'animation réalisé par Martine Chartrand. Le film, sorti en 1992, fait partie de la série Droits au cœur produite par l'Office national du film du Canada, pour laquelle il illustre le droit des enfants à profiter de loisirs sains, inspiré par la Convention relative aux droits de l'enfant[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">T.V. Tango est un court métrage d'animation réalisé par Martine Chartrand. Le film, sorti en 1992, fait partie de la série Droits au cœur produite par l'Office national du film du Canada, pour laquelle il illustre le droit des enfants à profiter de loisirs sains, inspiré par la Convention relative aux droits de l'enfant.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quatre enfants subissent l'influence de télévision puis prennent l'initiative de s'en détacher en inventant leurs propres jeux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quatre enfants subissent l'influence de télévision puis prennent l'initiative de s'en détacher en inventant leurs propres jeux.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation, scénario, animation : Martine Chartrand
 Production : Thérèse Descary
@@ -582,12 +598,14 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1992 : Mention spéciale, Festival international d'animation, Ottawa, Canada
 1993 : Prix pour la créativité individuelle, Festival international du film de Chicago, États-Unis
 1993 : Prix « Droits de l'enfant - UNICEF », Festival international du film de Chicago, États-Unis
-1993 : Meilleur film, Black International Cinema, Berlin, Allemagne[4]
+1993 : Meilleur film, Black International Cinema, Berlin, Allemagne
 1993 : Prix Hermina Tyrlova, Zlín Film Festival, Zlin, République tchèque
 1997 : Prix du festival du film de Giffoni pour les 3 volets de la Collection Droits au Cœur, Giffoni, Italie</t>
         </is>
